--- a/PulpPaper.xlsx
+++ b/PulpPaper.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51292229-3A93-4684-8A8B-41C19FD67604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D838E9-8140-4D92-9F6E-63CAF8613728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D0B38C0A-0EF2-4374-8FDF-FB924786D3AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D0B38C0A-0EF2-4374-8FDF-FB924786D3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Scenario</t>
   </si>
@@ -65,12 +66,15 @@
   <si>
     <t>Metric</t>
   </si>
+  <si>
+    <t>The pulp and paper sector accounts for approximately 2% of global industrial CO₂ emissions, with energy demand driven by steam, drying, and mechanical pulping processes. While energy efficiency improvements and fuel switching—such as shifting from coal to biomass—have helped lower emissions, progress remains limited. Emissions in the sector are declining by only 1.3% per year, well below the 6% annual reduction needed to align with the Net Zero by 2050 scenario.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +93,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +115,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +186,22 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9F2EEC-9C9D-4ADA-BD86-412ED0ACB3E5}">
   <dimension ref="A1:CL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1339,4 +1375,246 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A5C18E-B0E1-4EE3-A73B-3AB544BEA549}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PulpPaper.xlsx
+++ b/PulpPaper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D838E9-8140-4D92-9F6E-63CAF8613728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF1FB1-009A-4876-9E70-38DAFC8A5E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D0B38C0A-0EF2-4374-8FDF-FB924786D3AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D0B38C0A-0EF2-4374-8FDF-FB924786D3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>ETP B2DS</t>
-  </si>
-  <si>
     <t>Emissions</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>The pulp and paper sector accounts for approximately 2% of global industrial CO₂ emissions, with energy demand driven by steam, drying, and mechanical pulping processes. While energy efficiency improvements and fuel switching—such as shifting from coal to biomass—have helped lower emissions, progress remains limited. Emissions in the sector are declining by only 1.3% per year, well below the 6% annual reduction needed to align with the Net Zero by 2050 scenario.</t>
+  </si>
+  <si>
+    <t>SBTi pathway (ETP B2DS)</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,22 +186,21 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,18 +517,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9F2EEC-9C9D-4ADA-BD86-412ED0ACB3E5}">
   <dimension ref="A1:CL4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -798,13 +800,13 @@
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="6">
         <v>194.42</v>
@@ -990,13 +992,13 @@
     </row>
     <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="9">
         <v>1025.6500000000001</v>
@@ -1182,13 +1184,13 @@
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>400221853.07999998</v>
@@ -1381,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A5C18E-B0E1-4EE3-A73B-3AB544BEA549}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1391,225 +1393,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
